--- a/POPC/MATRIX/Workbook2.xlsx
+++ b/POPC/MATRIX/Workbook2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>size</t>
   </si>
@@ -53,16 +53,13 @@
   <si>
     <t>moyenne</t>
   </si>
-  <si>
-    <t>Total:</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -146,7 +143,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,11 +377,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2101656544"/>
-        <c:axId val="-2104976144"/>
+        <c:axId val="2124069232"/>
+        <c:axId val="2124494016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2101656544"/>
+        <c:axId val="2124069232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,7 +423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104976144"/>
+        <c:crossAx val="2124494016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -435,7 +432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104976144"/>
+        <c:axId val="2124494016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,7 +482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101656544"/>
+        <c:crossAx val="2124069232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1414,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3959,7 +3956,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="37" spans="2:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:41" ht="16" x14ac:dyDescent="0.2">
       <c r="J37" s="7"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -3993,19 +3990,7 @@
       <c r="AN37" s="8"/>
       <c r="AO37" s="8"/>
     </row>
-    <row r="38" spans="2:41" ht="16" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>7</v>
-      </c>
+    <row r="38" spans="10:41" ht="16" x14ac:dyDescent="0.2">
       <c r="J38" s="7"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -4039,7 +4024,7 @@
       <c r="AN38" s="8"/>
       <c r="AO38" s="8"/>
     </row>
-    <row r="39" spans="2:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="10:41" ht="16" x14ac:dyDescent="0.2">
       <c r="J39" s="7"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -4073,7 +4058,7 @@
       <c r="AN39" s="8"/>
       <c r="AO39" s="8"/>
     </row>
-    <row r="40" spans="2:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="10:41" ht="16" x14ac:dyDescent="0.2">
       <c r="J40" s="7"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -4107,7 +4092,7 @@
       <c r="AN40" s="8"/>
       <c r="AO40" s="8"/>
     </row>
-    <row r="41" spans="2:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="10:41" ht="16" x14ac:dyDescent="0.2">
       <c r="J41" s="7"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -4141,7 +4126,7 @@
       <c r="AN41" s="8"/>
       <c r="AO41" s="8"/>
     </row>
-    <row r="42" spans="2:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="10:41" ht="16" x14ac:dyDescent="0.2">
       <c r="J42" s="7"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -4175,7 +4160,7 @@
       <c r="AN42" s="8"/>
       <c r="AO42" s="8"/>
     </row>
-    <row r="43" spans="2:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="10:41" ht="16" x14ac:dyDescent="0.2">
       <c r="J43" s="7"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
@@ -4209,7 +4194,7 @@
       <c r="AN43" s="8"/>
       <c r="AO43" s="8"/>
     </row>
-    <row r="44" spans="2:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="10:41" ht="16" x14ac:dyDescent="0.2">
       <c r="J44" s="7"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
@@ -4243,7 +4228,7 @@
       <c r="AN44" s="8"/>
       <c r="AO44" s="8"/>
     </row>
-    <row r="45" spans="2:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="10:41" ht="16" x14ac:dyDescent="0.2">
       <c r="J45" s="7"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
@@ -4277,7 +4262,7 @@
       <c r="AN45" s="8"/>
       <c r="AO45" s="8"/>
     </row>
-    <row r="46" spans="2:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="10:41" ht="16" x14ac:dyDescent="0.2">
       <c r="J46" s="7"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
@@ -4311,7 +4296,7 @@
       <c r="AN46" s="8"/>
       <c r="AO46" s="8"/>
     </row>
-    <row r="47" spans="2:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="10:41" ht="16" x14ac:dyDescent="0.2">
       <c r="J47" s="7"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
@@ -4345,7 +4330,7 @@
       <c r="AN47" s="8"/>
       <c r="AO47" s="8"/>
     </row>
-    <row r="48" spans="2:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="10:41" ht="16" x14ac:dyDescent="0.2">
       <c r="J48" s="7"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
